--- a/加算様式一式/05_褥瘡マネジメント加算/褥瘡マネジメント加算・褥瘡対策管理指導Ⅱ様式案 _対応項目.xlsx
+++ b/加算様式一式/05_褥瘡マネジメント加算/褥瘡マネジメント加算・褥瘡対策管理指導Ⅱ様式案 _対応項目.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\work\Desktop\Life帳簿\ndsoft-formoutputzip\ndsoft-formoutput.git\加算様式一式\05_褥瘡マネジメント加算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\work\Desktop\Life帳簿\git\ndsoft-formoutput\加算様式一式\05_褥瘡マネジメント加算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79265BBA-E54B-4FA4-9A13-76404860C192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A99371-5C5A-4F3D-9874-C7C0E7FAB34B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="1875" windowWidth="18975" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="1920" windowWidth="18975" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="159">
   <si>
     <t>事業所番号</t>
     <rPh sb="0" eb="3">
@@ -83,13 +69,6 @@
     <t>external_system_management_number</t>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FORM_0500_2021</t>
-  </si>
-  <si>
     <t>評価日</t>
     <rPh sb="0" eb="3">
       <t>ヒョウカビ</t>
@@ -816,13 +795,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>記入欄</t>
-    <rPh sb="0" eb="3">
-      <t>キニュウラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>E10</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -934,6 +906,106 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目論理名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目物理名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳簿中の位置</t>
+    <rPh sb="0" eb="3">
+      <t>チョウボチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整数桁（文字数）</t>
+    <rPh sb="0" eb="3">
+      <t>セイスウケタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数点以下の桁数</t>
+    <rPh sb="0" eb="5">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書式</t>
+    <rPh sb="0" eb="2">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>YYYYMMDD</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1057,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -993,19 +1065,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1298,11 +1429,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1310,941 +1439,1564 @@
     <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="8" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="4">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="4">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="4">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="4">
+        <v>50</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>24</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>35</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <v>37</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <v>38</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>41</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <v>42</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="4">
+        <v>200</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
         <v>44</v>
       </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="4">
+        <v>200</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
         <v>45</v>
       </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>35</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="4">
+        <v>200</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
         <v>46</v>
       </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="4">
+        <v>200</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>36</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="4">
+        <v>200</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
         <v>48</v>
       </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="4">
+        <v>200</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>39</v>
-      </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="4">
+        <v>200</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="7">
         <v>50</v>
       </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>41</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B60" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>45</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>46</v>
-      </c>
-      <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>48</v>
-      </c>
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>50</v>
-      </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" t="s">
-        <v>142</v>
-      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="7">
+        <v>200</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D18">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>